--- a/inputfiles/Pine8th/Pine8th_BC.xlsx
+++ b/inputfiles/Pine8th/Pine8th_BC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\SubsurfaceSinks\inputfiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\SubsurfaceSinks\inputfiles\Pine8th\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AB9599-7460-437B-B38F-97A59192E9F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FF6CB1-D19A-4894-A09D-4E7BA4868B2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2655" yWindow="2655" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2655" yWindow="2655" windowWidth="17280" windowHeight="8970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BCSUMM" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
   <si>
     <t>Compartment</t>
   </si>
@@ -177,14 +177,33 @@
   </si>
   <si>
     <t>21.8,21.8,21.8,21.8,21.8,21.8,21.8,21.8,21.8,21.8</t>
+  </si>
+  <si>
+    <t>Instantaneous Volume</t>
+  </si>
+  <si>
+    <t>Top of Weir</t>
+  </si>
+  <si>
+    <t>Overflow to street</t>
+  </si>
+  <si>
+    <t>0,0.014585,0.062365,0.173085,0.35661,0.57461,1.01061,1.22861,1.44661,1.66461,1.88261,2.10061,2.31861,2.53661,2.75461,7.7686</t>
+  </si>
+  <si>
+    <t>0,0.01,0.02,0.03,0.04,0.05,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.38</t>
+  </si>
+  <si>
+    <t>0.6,2.317,7.239,14.905,21.8,21.8,21.8,21.8,21.8,21.8,21.8,21.8,21.8,21.8,21.8,21.8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -684,7 +703,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -702,6 +721,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1110,20 +1130,20 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.73046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1170,7 +1190,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1214,7 +1234,7 @@
       </c>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1260,7 +1280,7 @@
       </c>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -1306,7 +1326,7 @@
       </c>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1352,7 +1372,7 @@
       </c>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1398,7 +1418,7 @@
       </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -1446,7 +1466,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1493,7 +1513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1536,7 +1556,7 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
@@ -1581,7 +1601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
@@ -1626,7 +1646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -1669,7 +1689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -1714,7 +1734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" s="11" t="s">
         <v>50</v>
       </c>
@@ -1764,20 +1784,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACDB8D66-DC7B-4FF0-9E77-E1ECBCAC71AF}">
-  <dimension ref="B3:H53"/>
+  <dimension ref="B3:Z53"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="Q56" sqref="Q56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1328125" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
         <v>25</v>
       </c>
@@ -1785,12 +1805,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="D4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="9" t="s">
         <v>32</v>
       </c>
@@ -1801,7 +1821,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>30</v>
       </c>
@@ -1812,7 +1832,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
         <v>31</v>
       </c>
@@ -1829,7 +1849,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C8">
         <v>0</v>
       </c>
@@ -1846,7 +1866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C9">
         <f>$C$6/$C$5</f>
         <v>0.47499999999999998</v>
@@ -1868,7 +1888,7 @@
         <v>2.2357306985294118E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C10">
         <f>C9+$C$6/$C$5</f>
         <v>0.95</v>
@@ -1890,7 +1910,7 @@
         <v>0.10137408088235293</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C11">
         <f t="shared" ref="C11:C24" si="3">C10+$C$6/$C$5</f>
         <v>1.4249999999999998</v>
@@ -1912,7 +1932,7 @@
         <v>0.25496760110294114</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C12">
         <f t="shared" si="3"/>
         <v>1.9</v>
@@ -1934,7 +1954,7 @@
         <v>0.50105514705882359</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C13">
         <f t="shared" si="3"/>
         <v>2.375</v>
@@ -1956,7 +1976,7 @@
         <v>0.85755399816176459</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C14">
         <f t="shared" si="3"/>
         <v>2.85</v>
@@ -1978,7 +1998,7 @@
         <v>1.3423814338235296</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C15">
         <f t="shared" si="3"/>
         <v>3.3250000000000002</v>
@@ -2000,7 +2020,7 @@
         <v>1.9734547334558825</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C16">
         <f t="shared" si="3"/>
         <v>3.8000000000000003</v>
@@ -2022,7 +2042,7 @@
         <v>2.6077500000000002</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C17">
         <f t="shared" si="3"/>
         <v>4.2750000000000004</v>
@@ -2044,7 +2064,7 @@
         <v>3.3004335937500007</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C18">
         <f t="shared" si="3"/>
         <v>4.75</v>
@@ -2066,7 +2086,7 @@
         <v>4.0746093750000005</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C19">
         <f t="shared" si="3"/>
         <v>5.2249999999999996</v>
@@ -2088,7 +2108,7 @@
         <v>4.9302773437500003</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C20">
         <f t="shared" si="3"/>
         <v>5.6999999999999993</v>
@@ -2110,7 +2130,7 @@
         <v>5.8674375000000003</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C21">
         <f t="shared" si="3"/>
         <v>6.1749999999999989</v>
@@ -2132,7 +2152,7 @@
         <v>6.8860898437499998</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C22">
         <f t="shared" si="3"/>
         <v>6.6499999999999986</v>
@@ -2154,7 +2174,7 @@
         <v>7.9862343750000004</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C23">
         <f t="shared" si="3"/>
         <v>7.1249999999999982</v>
@@ -2176,7 +2196,7 @@
         <v>9.1678710937499996</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C24">
         <f t="shared" si="3"/>
         <v>7.5999999999999979</v>
@@ -2198,7 +2218,7 @@
         <v>9.8100000000000023</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C25">
         <v>7.6</v>
       </c>
@@ -2217,12 +2237,12 @@
         <v>11.990000000000002</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.45">
       <c r="E27" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.45">
       <c r="E28" t="s">
         <v>29</v>
       </c>
@@ -2233,7 +2253,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.45">
       <c r="E29" t="s">
         <v>27</v>
       </c>
@@ -2244,7 +2264,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.45">
       <c r="E30" t="s">
         <v>28</v>
       </c>
@@ -2255,7 +2275,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B33" s="9" t="s">
         <v>32</v>
       </c>
@@ -2266,7 +2286,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>30</v>
       </c>
@@ -2277,7 +2297,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.45">
       <c r="E35" t="s">
         <v>27</v>
       </c>
@@ -2285,241 +2305,511 @@
         <v>28</v>
       </c>
       <c r="G35" t="s">
+        <v>52</v>
+      </c>
+      <c r="H35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.45">
       <c r="E36">
-        <f>E34/$C$33</f>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>21.8</v>
+        <v>0.6</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
+        <f>G36</f>
+        <v>0</v>
+      </c>
+      <c r="I36">
         <f>F36</f>
-        <v>21.8</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0.6</v>
+      </c>
+      <c r="M36" t="s">
+        <v>29</v>
+      </c>
+      <c r="N36" t="s">
+        <v>48</v>
+      </c>
+      <c r="O36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.45">
       <c r="D37" s="5"/>
       <c r="E37">
-        <f>E36+$E$34/$C$33</f>
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F37">
-        <v>21.8</v>
-      </c>
-      <c r="G37" s="5">
-        <f>E37*F37</f>
-        <v>0.436</v>
-      </c>
-      <c r="H37" t="str">
-        <f>H36&amp;","&amp;F37</f>
-        <v>21.8,21.8</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2.3170000000000002</v>
+      </c>
+      <c r="G37" s="13">
+        <f>F36*(E37-E36)+(F37-F36)*(E37-E36)/2</f>
+        <v>1.4585000000000001E-2</v>
+      </c>
+      <c r="H37" s="13">
+        <f>G37+H36</f>
+        <v>1.4585000000000001E-2</v>
+      </c>
+      <c r="I37" t="str">
+        <f>I36&amp;","&amp;F37</f>
+        <v>0.6,2.317</v>
+      </c>
+      <c r="M37" t="s">
+        <v>27</v>
+      </c>
+      <c r="N37" t="s">
+        <v>47</v>
+      </c>
+      <c r="O37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.45">
       <c r="D38" s="5"/>
       <c r="E38">
-        <f t="shared" ref="E38:E45" si="5">E37+$E$34/$C$33</f>
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F38">
-        <v>21.8</v>
-      </c>
-      <c r="G38" s="5">
-        <f t="shared" ref="G38:G45" si="6">E38*F38</f>
-        <v>0.65400000000000003</v>
-      </c>
-      <c r="H38" t="str">
-        <f t="shared" ref="H38:H45" si="7">H37&amp;","&amp;F38</f>
-        <v>21.8,21.8,21.8</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+        <v>7.2389999999999999</v>
+      </c>
+      <c r="G38" s="13">
+        <f t="shared" ref="G38:G51" si="5">F37*(E38-E37)+(F38-F37)*(E38-E37)/2</f>
+        <v>4.7780000000000003E-2</v>
+      </c>
+      <c r="H38" s="13">
+        <f t="shared" ref="H38:H51" si="6">G38+H37</f>
+        <v>6.2365000000000004E-2</v>
+      </c>
+      <c r="I38" t="str">
+        <f>I37&amp;","&amp;F38</f>
+        <v>0.6,2.317,7.239</v>
+      </c>
+      <c r="M38" t="s">
+        <v>28</v>
+      </c>
+      <c r="N38" t="s">
+        <v>51</v>
+      </c>
+      <c r="O38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.45">
       <c r="D39" s="5"/>
       <c r="E39">
+        <v>0.03</v>
+      </c>
+      <c r="F39">
+        <v>14.904999999999999</v>
+      </c>
+      <c r="G39" s="13">
         <f t="shared" si="5"/>
-        <v>0.04</v>
-      </c>
-      <c r="F39">
-        <v>21.8</v>
-      </c>
-      <c r="G39" s="5">
+        <v>0.11071999999999997</v>
+      </c>
+      <c r="H39" s="13">
         <f t="shared" si="6"/>
-        <v>0.872</v>
-      </c>
-      <c r="H39" t="str">
-        <f t="shared" si="7"/>
-        <v>21.8,21.8,21.8,21.8</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0.17308499999999999</v>
+      </c>
+      <c r="I39" t="str">
+        <f>I38&amp;","&amp;F39</f>
+        <v>0.6,2.317,7.239,14.905</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.45">
       <c r="D40" s="5"/>
       <c r="E40">
+        <v>0.04</v>
+      </c>
+      <c r="F40">
+        <v>21.8</v>
+      </c>
+      <c r="G40" s="13">
         <f t="shared" si="5"/>
-        <v>0.05</v>
-      </c>
-      <c r="F40">
-        <v>21.8</v>
-      </c>
-      <c r="G40" s="5">
+        <v>0.18352500000000002</v>
+      </c>
+      <c r="H40" s="13">
         <f t="shared" si="6"/>
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="H40" t="str">
-        <f t="shared" si="7"/>
-        <v>21.8,21.8,21.8,21.8,21.8</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0.35660999999999998</v>
+      </c>
+      <c r="I40" t="str">
+        <f>I39&amp;","&amp;F40</f>
+        <v>0.6,2.317,7.239,14.905,21.8</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.45">
       <c r="D41" s="5"/>
       <c r="E41">
+        <v>0.05</v>
+      </c>
+      <c r="F41">
+        <v>21.8</v>
+      </c>
+      <c r="G41" s="13">
         <f t="shared" si="5"/>
-        <v>6.0000000000000005E-2</v>
-      </c>
-      <c r="F41">
-        <v>21.8</v>
-      </c>
-      <c r="G41" s="5">
+        <v>0.21800000000000005</v>
+      </c>
+      <c r="H41" s="13">
         <f t="shared" si="6"/>
-        <v>1.3080000000000001</v>
-      </c>
-      <c r="H41" t="str">
-        <f t="shared" si="7"/>
-        <v>21.8,21.8,21.8,21.8,21.8,21.8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0.57461000000000007</v>
+      </c>
+      <c r="I41" t="str">
+        <f>I40&amp;","&amp;F41</f>
+        <v>0.6,2.317,7.239,14.905,21.8,21.8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.45">
       <c r="D42" s="5"/>
       <c r="E42">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F42">
+        <v>21.8</v>
+      </c>
+      <c r="G42" s="13">
         <f t="shared" si="5"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F42">
-        <v>21.8</v>
-      </c>
-      <c r="G42" s="5">
+        <v>0.43600000000000011</v>
+      </c>
+      <c r="H42" s="13">
         <f t="shared" si="6"/>
-        <v>1.5260000000000002</v>
-      </c>
-      <c r="H42" t="str">
-        <f t="shared" si="7"/>
-        <v>21.8,21.8,21.8,21.8,21.8,21.8,21.8</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1.0106100000000002</v>
+      </c>
+      <c r="I42" t="str">
+        <f>I41&amp;","&amp;F42</f>
+        <v>0.6,2.317,7.239,14.905,21.8,21.8,21.8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.45">
       <c r="D43" s="5"/>
       <c r="E43">
+        <v>0.08</v>
+      </c>
+      <c r="F43">
+        <v>21.8</v>
+      </c>
+      <c r="G43" s="13">
         <f t="shared" si="5"/>
-        <v>0.08</v>
-      </c>
-      <c r="F43">
-        <v>21.8</v>
-      </c>
-      <c r="G43" s="5">
+        <v>0.21799999999999989</v>
+      </c>
+      <c r="H43" s="13">
         <f t="shared" si="6"/>
-        <v>1.744</v>
-      </c>
-      <c r="H43" t="str">
-        <f t="shared" si="7"/>
-        <v>21.8,21.8,21.8,21.8,21.8,21.8,21.8,21.8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1.2286100000000002</v>
+      </c>
+      <c r="I43" t="str">
+        <f>I42&amp;","&amp;F43</f>
+        <v>0.6,2.317,7.239,14.905,21.8,21.8,21.8,21.8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.45">
       <c r="D44" s="5"/>
       <c r="E44">
+        <v>0.09</v>
+      </c>
+      <c r="F44">
+        <v>21.8</v>
+      </c>
+      <c r="G44" s="13">
         <f t="shared" si="5"/>
-        <v>0.09</v>
-      </c>
-      <c r="F44">
-        <v>21.8</v>
-      </c>
-      <c r="G44" s="5">
+        <v>0.21799999999999989</v>
+      </c>
+      <c r="H44" s="13">
         <f t="shared" si="6"/>
-        <v>1.962</v>
-      </c>
-      <c r="H44" t="str">
-        <f t="shared" si="7"/>
-        <v>21.8,21.8,21.8,21.8,21.8,21.8,21.8,21.8,21.8</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1.4466100000000002</v>
+      </c>
+      <c r="I44" t="str">
+        <f>I43&amp;","&amp;F44</f>
+        <v>0.6,2.317,7.239,14.905,21.8,21.8,21.8,21.8,21.8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.45">
       <c r="D45" s="5"/>
       <c r="E45">
+        <v>0.1</v>
+      </c>
+      <c r="F45">
+        <v>21.8</v>
+      </c>
+      <c r="G45" s="13">
         <f t="shared" si="5"/>
-        <v>9.9999999999999992E-2</v>
-      </c>
-      <c r="F45">
-        <v>21.8</v>
-      </c>
-      <c r="G45" s="5">
+        <v>0.21800000000000019</v>
+      </c>
+      <c r="H45" s="13">
         <f t="shared" si="6"/>
-        <v>2.1799999999999997</v>
-      </c>
-      <c r="H45" t="str">
-        <f t="shared" si="7"/>
-        <v>21.8,21.8,21.8,21.8,21.8,21.8,21.8,21.8,21.8,21.8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1.6646100000000004</v>
+      </c>
+      <c r="I45" t="str">
+        <f>I44&amp;","&amp;F45</f>
+        <v>0.6,2.317,7.239,14.905,21.8,21.8,21.8,21.8,21.8,21.8</v>
+      </c>
+      <c r="N45" t="s">
+        <v>29</v>
+      </c>
+      <c r="O45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.45">
       <c r="D46" s="5"/>
-      <c r="G46" s="5"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>0.11</v>
+      </c>
+      <c r="F46">
+        <v>21.8</v>
+      </c>
+      <c r="G46" s="13">
+        <f t="shared" si="5"/>
+        <v>0.21799999999999989</v>
+      </c>
+      <c r="H46" s="13">
+        <f t="shared" si="6"/>
+        <v>1.8826100000000003</v>
+      </c>
+      <c r="N46" t="s">
+        <v>27</v>
+      </c>
+      <c r="O46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.45">
       <c r="D47" s="5"/>
-      <c r="E47" t="s">
-        <v>29</v>
-      </c>
-      <c r="F47" t="s">
-        <v>48</v>
-      </c>
-      <c r="G47" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>0.12</v>
+      </c>
+      <c r="F47">
+        <v>21.8</v>
+      </c>
+      <c r="G47" s="13">
+        <f t="shared" si="5"/>
+        <v>0.21799999999999989</v>
+      </c>
+      <c r="H47" s="13">
+        <f t="shared" si="6"/>
+        <v>2.1006100000000001</v>
+      </c>
+      <c r="N47" t="s">
+        <v>28</v>
+      </c>
+      <c r="O47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.45">
       <c r="D48" s="5"/>
-      <c r="E48" t="s">
-        <v>27</v>
-      </c>
-      <c r="F48" t="s">
-        <v>47</v>
-      </c>
-      <c r="G48" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>0.13</v>
+      </c>
+      <c r="F48">
+        <v>21.8</v>
+      </c>
+      <c r="G48" s="13">
+        <f t="shared" si="5"/>
+        <v>0.21800000000000019</v>
+      </c>
+      <c r="H48" s="13">
+        <f t="shared" si="6"/>
+        <v>2.3186100000000005</v>
+      </c>
+    </row>
+    <row r="49" spans="4:26" x14ac:dyDescent="0.45">
       <c r="D49" s="5"/>
-      <c r="E49" t="s">
-        <v>28</v>
-      </c>
-      <c r="F49" t="s">
-        <v>51</v>
-      </c>
-      <c r="G49" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D50" s="5"/>
-      <c r="G50" s="5"/>
-    </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D51" s="5"/>
-      <c r="G51" s="5"/>
-    </row>
-    <row r="52" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F49">
+        <v>21.8</v>
+      </c>
+      <c r="G49" s="13">
+        <f t="shared" si="5"/>
+        <v>0.21800000000000019</v>
+      </c>
+      <c r="H49" s="13">
+        <f t="shared" si="6"/>
+        <v>2.5366100000000005</v>
+      </c>
+    </row>
+    <row r="50" spans="4:26" x14ac:dyDescent="0.45">
+      <c r="D50" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50">
+        <v>0.15</v>
+      </c>
+      <c r="F50">
+        <v>21.8</v>
+      </c>
+      <c r="G50" s="13">
+        <f t="shared" si="5"/>
+        <v>0.21799999999999958</v>
+      </c>
+      <c r="H50" s="13">
+        <f t="shared" si="6"/>
+        <v>2.75461</v>
+      </c>
+    </row>
+    <row r="51" spans="4:26" x14ac:dyDescent="0.45">
+      <c r="D51" t="s">
+        <v>54</v>
+      </c>
+      <c r="E51">
+        <f>E50+0.23</f>
+        <v>0.38</v>
+      </c>
+      <c r="F51">
+        <v>21.8</v>
+      </c>
+      <c r="G51" s="13">
+        <f t="shared" si="5"/>
+        <v>5.0140000000000002</v>
+      </c>
+      <c r="H51" s="13">
+        <f t="shared" si="6"/>
+        <v>7.7686100000000007</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>1.4585000000000001E-2</v>
+      </c>
+      <c r="N51">
+        <v>6.2364999999999997E-2</v>
+      </c>
+      <c r="O51">
+        <v>0.17308499999999999</v>
+      </c>
+      <c r="P51">
+        <v>0.35660999999999998</v>
+      </c>
+      <c r="Q51">
+        <v>0.57460999999999995</v>
+      </c>
+      <c r="R51">
+        <v>1.01061</v>
+      </c>
+      <c r="S51">
+        <v>1.22861</v>
+      </c>
+      <c r="T51">
+        <v>1.44661</v>
+      </c>
+      <c r="U51">
+        <v>1.6646099999999999</v>
+      </c>
+      <c r="V51">
+        <v>1.8826099999999999</v>
+      </c>
+      <c r="W51">
+        <v>2.1006100000000001</v>
+      </c>
+      <c r="X51">
+        <v>2.3186100000000001</v>
+      </c>
+      <c r="Y51">
+        <v>2.53661</v>
+      </c>
+      <c r="Z51">
+        <v>2.75461</v>
+      </c>
+    </row>
+    <row r="52" spans="4:26" x14ac:dyDescent="0.45">
       <c r="D52" s="5"/>
-      <c r="G52" s="5"/>
-    </row>
-    <row r="53" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="G53" s="5"/>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0.01</v>
+      </c>
+      <c r="N52">
+        <v>0.02</v>
+      </c>
+      <c r="O52">
+        <v>0.03</v>
+      </c>
+      <c r="P52">
+        <v>0.04</v>
+      </c>
+      <c r="Q52">
+        <v>0.05</v>
+      </c>
+      <c r="R52">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S52">
+        <v>0.08</v>
+      </c>
+      <c r="T52">
+        <v>0.09</v>
+      </c>
+      <c r="U52">
+        <v>0.1</v>
+      </c>
+      <c r="V52">
+        <v>0.11</v>
+      </c>
+      <c r="W52">
+        <v>0.12</v>
+      </c>
+      <c r="X52">
+        <v>0.13</v>
+      </c>
+      <c r="Y52">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Z52">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="53" spans="4:26" x14ac:dyDescent="0.45">
+      <c r="L53">
+        <v>0.6</v>
+      </c>
+      <c r="M53">
+        <v>2.3170000000000002</v>
+      </c>
+      <c r="N53">
+        <v>7.2389999999999999</v>
+      </c>
+      <c r="O53">
+        <v>14.904999999999999</v>
+      </c>
+      <c r="P53">
+        <v>21.8</v>
+      </c>
+      <c r="Q53">
+        <v>21.8</v>
+      </c>
+      <c r="R53">
+        <v>21.8</v>
+      </c>
+      <c r="S53">
+        <v>21.8</v>
+      </c>
+      <c r="T53">
+        <v>21.8</v>
+      </c>
+      <c r="U53">
+        <v>21.8</v>
+      </c>
+      <c r="V53">
+        <v>21.8</v>
+      </c>
+      <c r="W53">
+        <v>21.8</v>
+      </c>
+      <c r="X53">
+        <v>21.8</v>
+      </c>
+      <c r="Y53">
+        <v>21.8</v>
+      </c>
+      <c r="Z53">
+        <v>21.8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
